--- a/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2746CCC0-A5A0-47BD-8769-3D82AB5DB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65BA5B9-6719-4C80-976A-36A3C699F637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BCEF232-076B-4865-AA03-F2E6182960A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B2531739-14E7-44DD-ABF6-F8EF0D1D07BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -533,16 +533,13 @@
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -551,316 +548,307 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,57%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>97,87%</t>
+    <t>97,92%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>96,62%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
     <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03689AA-06AF-4792-B18F-1108FF10F680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139AB9E8-D0A4-4C62-A345-FDCBE1C24347}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2803,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB3DC9-7E67-4468-93E8-A590501FECDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBF0AFF-E688-4DB6-9F7F-8C81125DC7AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4316,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A417939-2B6B-4523-BA4F-CD32292E5556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BCEF0A-9050-4B6F-B8E3-EF77471E4C12}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5263,7 +5251,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5314,7 +5302,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5847,7 +5835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD8229E-66C7-4D0A-8796-EF00CD67A1BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A9CEB1-6C2F-4C3D-9C47-2CE5E91B5E61}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5974,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5986,13 +5974,13 @@
         <v>1326</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6001,13 +5989,13 @@
         <v>3885</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,10 +6013,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>537</v>
@@ -6037,10 +6025,10 @@
         <v>270077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -6052,13 +6040,13 @@
         <v>527815</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,10 +6117,10 @@
         <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6141,10 +6129,10 @@
         <v>4791</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>180</v>
@@ -6180,10 +6168,10 @@
         <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>709</v>
@@ -6192,13 +6180,13 @@
         <v>548425</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
@@ -6207,13 +6195,13 @@
         <v>1061502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6269,13 @@
         <v>4141</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -6296,13 +6284,13 @@
         <v>8377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -6311,13 +6299,13 @@
         <v>12518</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6320,13 @@
         <v>318099</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>522</v>
@@ -6353,7 +6341,7 @@
         <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>878</v>
@@ -6454,10 +6442,10 @@
         <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6469,10 +6457,10 @@
         <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6490,13 @@
         <v>424821</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>885</v>
@@ -6520,10 +6508,10 @@
         <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6579,13 @@
         <v>1215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -6606,13 +6594,13 @@
         <v>3435</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6621,13 +6609,13 @@
         <v>4650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6630,13 @@
         <v>195533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>484</v>
@@ -6657,10 +6645,10 @@
         <v>228468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>62</v>
@@ -6672,13 +6660,13 @@
         <v>424001</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,13 +6734,13 @@
         <v>6441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6761,13 +6749,13 @@
         <v>4608</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6776,13 +6764,13 @@
         <v>11049</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6785,13 @@
         <v>270782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H20" s="7">
         <v>450</v>
@@ -6812,13 +6800,13 @@
         <v>271014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>812</v>
@@ -6827,13 +6815,13 @@
         <v>541796</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,10 +6892,10 @@
         <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -6916,13 +6904,13 @@
         <v>18032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -6931,13 +6919,13 @@
         <v>30941</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,10 +6943,10 @@
         <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="H23" s="7">
         <v>932</v>
@@ -6970,10 +6958,10 @@
         <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M23" s="7">
         <v>1521</v>
@@ -6982,13 +6970,13 @@
         <v>1401016</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,10 +7047,10 @@
         <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -7074,10 +7062,10 @@
         <v>51</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -7089,10 +7077,10 @@
         <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,10 +7098,10 @@
         <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>1046</v>
@@ -7125,10 +7113,10 @@
         <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M26" s="7">
         <v>1804</v>
@@ -7140,10 +7128,10 @@
         <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7199,13 @@
         <v>35992</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -7229,10 +7217,10 @@
         <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>123</v>
@@ -7241,13 +7229,13 @@
         <v>90537</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7250,13 @@
         <v>3348166</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H29" s="7">
         <v>5273</v>
@@ -7280,25 +7268,25 @@
         <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M29" s="7">
         <v>8611</v>
       </c>
       <c r="N29" s="7">
-        <v>7096482</v>
+        <v>7096483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,7 +7328,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7187019</v>
+        <v>7187020</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65BA5B9-6719-4C80-976A-36A3C699F637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F49B72-42A2-45CB-90C2-4EA89C3DE745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B2531739-14E7-44DD-ABF6-F8EF0D1D07BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0E32A68-82D0-4C21-9636-529367F543B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -401,7 +401,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139AB9E8-D0A4-4C62-A345-FDCBE1C24347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1C3789-4744-481A-B972-5B2B4C7F021B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBF0AFF-E688-4DB6-9F7F-8C81125DC7AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750EF41E-F839-4800-99F2-C06688B02B81}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BCEF0A-9050-4B6F-B8E3-EF77471E4C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02837302-889B-44B9-91E8-4645DF3F2BC6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A9CEB1-6C2F-4C3D-9C47-2CE5E91B5E61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDFDB6F-F5E9-4954-9247-C0C030C8F6F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F49B72-42A2-45CB-90C2-4EA89C3DE745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD66710-5220-4B5A-9F9A-7C6215EEAA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0E32A68-82D0-4C21-9636-529367F543B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2ACC1AC6-1850-41E9-9698-5BC7961D5402}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="274">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -533,13 +533,16 @@
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>4,23%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -548,307 +551,316 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
     <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1C3789-4744-481A-B972-5B2B4C7F021B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAB454-C336-4580-9FF4-4F4651B44132}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750EF41E-F839-4800-99F2-C06688B02B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09B6C73-428F-4BE2-A78C-4DD3C29AEE92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02837302-889B-44B9-91E8-4645DF3F2BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785AED54-0BB4-4A03-8567-B34746414E61}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5251,7 +5263,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5302,7 +5314,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5835,7 +5847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDFDB6F-F5E9-4954-9247-C0C030C8F6F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCAB3EB-6EF6-470E-977E-F73319CD6A56}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5962,10 +5974,10 @@
         <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5974,13 +5986,13 @@
         <v>1326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5989,13 +6001,13 @@
         <v>3885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,10 +6025,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>537</v>
@@ -6025,10 +6037,10 @@
         <v>270077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -6040,13 +6052,13 @@
         <v>527815</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,10 +6129,10 @@
         <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6129,10 +6141,10 @@
         <v>4791</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>180</v>
@@ -6168,10 +6180,10 @@
         <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>709</v>
@@ -6180,13 +6192,13 @@
         <v>548425</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
@@ -6195,13 +6207,13 @@
         <v>1061502</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6281,13 @@
         <v>4141</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -6284,13 +6296,13 @@
         <v>8377</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -6299,13 +6311,13 @@
         <v>12518</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6332,13 @@
         <v>318099</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>522</v>
@@ -6341,7 +6353,7 @@
         <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>878</v>
@@ -6442,10 +6454,10 @@
         <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6457,10 +6469,10 @@
         <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6502,13 @@
         <v>424821</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>885</v>
@@ -6508,10 +6520,10 @@
         <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6591,13 @@
         <v>1215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -6594,13 +6606,13 @@
         <v>3435</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6609,13 +6621,13 @@
         <v>4650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6642,13 @@
         <v>195533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>484</v>
@@ -6645,10 +6657,10 @@
         <v>228468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>62</v>
@@ -6660,13 +6672,13 @@
         <v>424001</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6746,13 @@
         <v>6441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6749,13 +6761,13 @@
         <v>4608</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6764,13 +6776,13 @@
         <v>11049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6797,13 @@
         <v>270782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>450</v>
@@ -6800,13 +6812,13 @@
         <v>271014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>812</v>
@@ -6815,13 +6827,13 @@
         <v>541796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,10 +6904,10 @@
         <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -6904,13 +6916,13 @@
         <v>18032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -6919,13 +6931,13 @@
         <v>30941</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,10 +6955,10 @@
         <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="H23" s="7">
         <v>932</v>
@@ -6958,10 +6970,10 @@
         <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>1521</v>
@@ -6970,13 +6982,13 @@
         <v>1401016</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,10 +7059,10 @@
         <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -7062,10 +7074,10 @@
         <v>51</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -7077,10 +7089,10 @@
         <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,10 +7110,10 @@
         <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H26" s="7">
         <v>1046</v>
@@ -7113,10 +7125,10 @@
         <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M26" s="7">
         <v>1804</v>
@@ -7128,10 +7140,10 @@
         <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7211,13 @@
         <v>35992</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -7217,10 +7229,10 @@
         <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="M28" s="7">
         <v>123</v>
@@ -7229,13 +7241,13 @@
         <v>90537</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7262,13 @@
         <v>3348166</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H29" s="7">
         <v>5273</v>
@@ -7268,25 +7280,25 @@
         <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>8611</v>
       </c>
       <c r="N29" s="7">
-        <v>7096483</v>
+        <v>7096482</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,7 +7340,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7187020</v>
+        <v>7187019</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD66710-5220-4B5A-9F9A-7C6215EEAA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A5D1C2-30E1-46B8-953A-62BBE0BB4681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2ACC1AC6-1850-41E9-9698-5BC7961D5402}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C29E58EC-ACD7-4CA6-BC82-6FD5C7AA070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="271">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -272,7 +272,16 @@
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 39,99%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -305,562 +314,544 @@
     <t>99,16%</t>
   </si>
   <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>1,03%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAB454-C336-4580-9FF4-4F4651B44132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DA86FA-0833-4992-9F1C-41693BAD161E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2803,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09B6C73-428F-4BE2-A78C-4DD3C29AEE92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377528E4-94B3-4144-9C2B-22262D8D05C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2923,12 +2914,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>77</v>
@@ -2936,28 +2929,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,43 +2963,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126219</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>64369</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="N5" s="7">
+        <v>190589</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,43 +3014,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
+        <v>126219</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I6" s="7">
+        <v>64369</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="N6" s="7">
+        <v>190589</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3085,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3118,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3133,7 +3142,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3225,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3240,7 +3249,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3255,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3282,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3288,7 +3297,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3303,7 +3312,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3380,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3395,7 +3404,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3410,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,46 +3428,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>317347</v>
+        <v>191128</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N14" s="7">
-        <v>480786</v>
+        <v>290198</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3470,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D15" s="7">
-        <v>317347</v>
+        <v>191128</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3485,10 +3494,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3500,10 +3509,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N15" s="7">
-        <v>480786</v>
+        <v>290198</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3535,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3550,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3565,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3592,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3598,7 +3607,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3613,7 +3622,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3690,7 +3699,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3705,7 +3714,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3720,7 +3729,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3747,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3753,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -3768,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3845,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3875,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3902,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -3923,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4000,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4015,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4048,7 +4057,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -4063,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -4155,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4170,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4185,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +4212,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -4212,13 +4221,13 @@
         <v>984</v>
       </c>
       <c r="I29" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -4233,7 +4242,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -4263,7 +4272,7 @@
         <v>984</v>
       </c>
       <c r="I30" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -4316,7 +4325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785AED54-0BB4-4A03-8567-B34746414E61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFCFD8D-1D60-4FC3-A72A-FF3865388B7F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4446,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4461,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4476,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,7 +4503,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4509,7 +4518,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4524,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4601,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4616,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4631,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,7 +4658,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4664,7 +4673,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4679,7 +4688,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4756,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4771,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4786,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,7 +4813,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4819,7 +4828,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4834,7 +4843,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4911,7 +4920,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4926,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4941,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4968,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4974,7 +4983,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4989,7 +4998,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5066,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5081,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5096,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5123,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5129,7 +5138,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5144,7 +5153,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5221,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5236,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5251,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5278,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5284,7 +5293,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5299,7 +5308,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5376,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5406,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,7 +5433,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5454,7 +5463,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5531,7 +5540,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5546,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5561,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5588,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -5594,7 +5603,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5609,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -5686,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5701,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5716,7 +5725,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,7 +5743,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -5749,7 +5758,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5764,7 +5773,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -5847,7 +5856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCAB3EB-6EF6-470E-977E-F73319CD6A56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF017212-ECF7-426C-86AA-18E69B0EA6EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5864,7 +5873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5968,46 +5977,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2559</v>
+        <v>3328</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>3885</v>
+        <v>4894</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,28 +6028,28 @@
         <v>328</v>
       </c>
       <c r="D5" s="7">
-        <v>257739</v>
+        <v>308115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>537</v>
       </c>
       <c r="I5" s="7">
-        <v>270077</v>
+        <v>288069</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -6049,16 +6058,16 @@
         <v>865</v>
       </c>
       <c r="N5" s="7">
-        <v>527815</v>
+        <v>596183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6079,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -6085,7 +6094,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -6100,7 +6109,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -6123,46 +6132,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>5151</v>
+        <v>5081</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4791</v>
+        <v>4454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>9941</v>
+        <v>9535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,46 +6183,46 @@
         <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>513076</v>
+        <v>512312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>709</v>
       </c>
       <c r="I8" s="7">
-        <v>548425</v>
+        <v>509271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
       </c>
       <c r="N8" s="7">
-        <v>1061502</v>
+        <v>1021583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6234,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6240,7 +6249,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6255,7 +6264,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6278,46 +6287,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>4141</v>
+        <v>4064</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>8377</v>
+        <v>7794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>12518</v>
+        <v>11858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,46 +6338,46 @@
         <v>356</v>
       </c>
       <c r="D11" s="7">
-        <v>318099</v>
+        <v>311986</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>522</v>
       </c>
       <c r="I11" s="7">
-        <v>364907</v>
+        <v>341334</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>878</v>
       </c>
       <c r="N11" s="7">
-        <v>683006</v>
+        <v>653320</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6389,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6395,7 +6404,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6410,7 +6419,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6448,31 +6457,31 @@
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3379</v>
+        <v>3104</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>3379</v>
+        <v>3104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,7 +6493,7 @@
         <v>292</v>
       </c>
       <c r="D14" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -6499,31 +6508,31 @@
         <v>593</v>
       </c>
       <c r="I14" s="7">
-        <v>424821</v>
+        <v>472283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>885</v>
       </c>
       <c r="N14" s="7">
-        <v>747061</v>
+        <v>784840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,7 +6544,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6550,7 +6559,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6565,7 +6574,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6588,46 +6597,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1215</v>
+        <v>1130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>3435</v>
+        <v>3130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>4650</v>
+        <v>4259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,46 +6648,46 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>195533</v>
+        <v>177612</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>484</v>
       </c>
       <c r="I17" s="7">
-        <v>228468</v>
+        <v>205526</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
       </c>
       <c r="N17" s="7">
-        <v>424001</v>
+        <v>383139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,7 +6699,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6705,7 +6714,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6720,7 +6729,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6743,46 +6752,46 @@
         <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>6441</v>
+        <v>6112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>4608</v>
+        <v>4291</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>11049</v>
+        <v>10402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,46 +6803,46 @@
         <v>362</v>
       </c>
       <c r="D20" s="7">
-        <v>270782</v>
+        <v>263524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>450</v>
       </c>
       <c r="I20" s="7">
-        <v>271014</v>
+        <v>252765</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>812</v>
       </c>
       <c r="N20" s="7">
-        <v>541796</v>
+        <v>516290</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,7 +6854,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6860,7 +6869,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6875,7 +6884,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6898,46 +6907,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>12909</v>
+        <v>12842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>18032</v>
+        <v>16365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>30941</v>
+        <v>29207</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,46 +6958,46 @@
         <v>589</v>
       </c>
       <c r="D23" s="7">
-        <v>614845</v>
+        <v>611437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>932</v>
       </c>
       <c r="I23" s="7">
-        <v>786171</v>
+        <v>832900</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="M23" s="7">
         <v>1521</v>
       </c>
       <c r="N23" s="7">
-        <v>1401016</v>
+        <v>1444337</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,7 +7009,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -7015,7 +7024,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -7030,7 +7039,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -7053,46 +7062,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3576</v>
+        <v>3102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>10597</v>
+        <v>8974</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>14173</v>
+        <v>12075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,46 +7113,46 @@
         <v>758</v>
       </c>
       <c r="D26" s="7">
-        <v>855852</v>
+        <v>925618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>1046</v>
       </c>
       <c r="I26" s="7">
-        <v>854434</v>
+        <v>705877</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>1804</v>
       </c>
       <c r="N26" s="7">
-        <v>1710286</v>
+        <v>1631497</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,7 +7164,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7170,7 +7179,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -7185,7 +7194,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7208,46 +7217,46 @@
         <v>37</v>
       </c>
       <c r="D28" s="7">
-        <v>35992</v>
+        <v>35657</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
       </c>
       <c r="I28" s="7">
-        <v>54545</v>
+        <v>49678</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" s="7">
         <v>123</v>
       </c>
       <c r="N28" s="7">
-        <v>90537</v>
+        <v>85335</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,46 +7268,46 @@
         <v>3338</v>
       </c>
       <c r="D29" s="7">
-        <v>3348166</v>
+        <v>3423163</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>5273</v>
       </c>
       <c r="I29" s="7">
-        <v>3748317</v>
+        <v>3608024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M29" s="7">
         <v>8611</v>
       </c>
       <c r="N29" s="7">
-        <v>7096482</v>
+        <v>7031187</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,7 +7319,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7325,7 +7334,7 @@
         <v>5359</v>
       </c>
       <c r="I30" s="7">
-        <v>3802862</v>
+        <v>3657702</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7340,7 +7349,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7187019</v>
+        <v>7116522</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
